--- a/Runway and Cash Budget Tool Foresight.xlsx
+++ b/Runway and Cash Budget Tool Foresight.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="343">
   <si>
     <t>Year</t>
   </si>
@@ -1054,6 +1054,12 @@
   <si>
     <t>Foresight's Standard Financial Model</t>
   </si>
+  <si>
+    <t>v1.3 - 28 February 2019</t>
+  </si>
+  <si>
+    <t>Forecast: Edits to lines 134, 135, and I140 to track existing ownership correctly.</t>
+  </si>
 </sst>
 </file>
 
@@ -2493,7 +2499,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2760,6 +2766,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="851" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1111">
@@ -4342,11 +4351,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-2136267304"/>
-        <c:axId val="-2123179080"/>
+        <c:axId val="-2096099928"/>
+        <c:axId val="-2096103000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2136267304"/>
+        <c:axId val="-2096099928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,7 +4365,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123179080"/>
+        <c:crossAx val="-2096103000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4364,7 +4373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123179080"/>
+        <c:axId val="-2096103000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4380,7 +4389,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2136267304"/>
+        <c:crossAx val="-2096099928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4571,7 +4580,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4603,112 +4611,112 @@
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43500.0</c:v>
+                  <c:v>43524.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43528.0</c:v>
+                  <c:v>43552.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43559.0</c:v>
+                  <c:v>43583.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43589.0</c:v>
+                  <c:v>43613.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43620.0</c:v>
+                  <c:v>43644.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43650.0</c:v>
+                  <c:v>43674.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43681.0</c:v>
+                  <c:v>43705.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43712.0</c:v>
+                  <c:v>43736.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43742.0</c:v>
+                  <c:v>43766.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43773.0</c:v>
+                  <c:v>43797.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43803.0</c:v>
+                  <c:v>43827.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43834.0</c:v>
+                  <c:v>43858.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43865.0</c:v>
+                  <c:v>43889.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43894.0</c:v>
+                  <c:v>43918.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43925.0</c:v>
+                  <c:v>43949.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43955.0</c:v>
+                  <c:v>43979.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43986.0</c:v>
+                  <c:v>44010.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44016.0</c:v>
+                  <c:v>44040.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44047.0</c:v>
+                  <c:v>44071.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44078.0</c:v>
+                  <c:v>44102.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44108.0</c:v>
+                  <c:v>44132.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44139.0</c:v>
+                  <c:v>44163.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44169.0</c:v>
+                  <c:v>44193.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44200.0</c:v>
+                  <c:v>44224.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44231.0</c:v>
+                  <c:v>44255.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44259.0</c:v>
+                  <c:v>44283.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44290.0</c:v>
+                  <c:v>44314.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44320.0</c:v>
+                  <c:v>44344.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44351.0</c:v>
+                  <c:v>44375.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44381.0</c:v>
+                  <c:v>44405.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44412.0</c:v>
+                  <c:v>44436.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44443.0</c:v>
+                  <c:v>44467.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44473.0</c:v>
+                  <c:v>44497.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44504.0</c:v>
+                  <c:v>44528.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44534.0</c:v>
+                  <c:v>44558.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44565.0</c:v>
+                  <c:v>44589.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4853,112 +4861,112 @@
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43500.0</c:v>
+                  <c:v>43524.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43528.0</c:v>
+                  <c:v>43552.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43559.0</c:v>
+                  <c:v>43583.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43589.0</c:v>
+                  <c:v>43613.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43620.0</c:v>
+                  <c:v>43644.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43650.0</c:v>
+                  <c:v>43674.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43681.0</c:v>
+                  <c:v>43705.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43712.0</c:v>
+                  <c:v>43736.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43742.0</c:v>
+                  <c:v>43766.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43773.0</c:v>
+                  <c:v>43797.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43803.0</c:v>
+                  <c:v>43827.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43834.0</c:v>
+                  <c:v>43858.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43865.0</c:v>
+                  <c:v>43889.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43894.0</c:v>
+                  <c:v>43918.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43925.0</c:v>
+                  <c:v>43949.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43955.0</c:v>
+                  <c:v>43979.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43986.0</c:v>
+                  <c:v>44010.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44016.0</c:v>
+                  <c:v>44040.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44047.0</c:v>
+                  <c:v>44071.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44078.0</c:v>
+                  <c:v>44102.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44108.0</c:v>
+                  <c:v>44132.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44139.0</c:v>
+                  <c:v>44163.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44169.0</c:v>
+                  <c:v>44193.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44200.0</c:v>
+                  <c:v>44224.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44231.0</c:v>
+                  <c:v>44255.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44259.0</c:v>
+                  <c:v>44283.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44290.0</c:v>
+                  <c:v>44314.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44320.0</c:v>
+                  <c:v>44344.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44351.0</c:v>
+                  <c:v>44375.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44381.0</c:v>
+                  <c:v>44405.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44412.0</c:v>
+                  <c:v>44436.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44443.0</c:v>
+                  <c:v>44467.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44473.0</c:v>
+                  <c:v>44497.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44504.0</c:v>
+                  <c:v>44528.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44534.0</c:v>
+                  <c:v>44558.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44565.0</c:v>
+                  <c:v>44589.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5091,8 +5099,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2122440248"/>
-        <c:axId val="-2130233640"/>
+        <c:axId val="-2093751896"/>
+        <c:axId val="-2093754760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5121,112 +5129,112 @@
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43500.0</c:v>
+                  <c:v>43524.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43528.0</c:v>
+                  <c:v>43552.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43559.0</c:v>
+                  <c:v>43583.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43589.0</c:v>
+                  <c:v>43613.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43620.0</c:v>
+                  <c:v>43644.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43650.0</c:v>
+                  <c:v>43674.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43681.0</c:v>
+                  <c:v>43705.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43712.0</c:v>
+                  <c:v>43736.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43742.0</c:v>
+                  <c:v>43766.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43773.0</c:v>
+                  <c:v>43797.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43803.0</c:v>
+                  <c:v>43827.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43834.0</c:v>
+                  <c:v>43858.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43865.0</c:v>
+                  <c:v>43889.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43894.0</c:v>
+                  <c:v>43918.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43925.0</c:v>
+                  <c:v>43949.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43955.0</c:v>
+                  <c:v>43979.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43986.0</c:v>
+                  <c:v>44010.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44016.0</c:v>
+                  <c:v>44040.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44047.0</c:v>
+                  <c:v>44071.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44078.0</c:v>
+                  <c:v>44102.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44108.0</c:v>
+                  <c:v>44132.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44139.0</c:v>
+                  <c:v>44163.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44169.0</c:v>
+                  <c:v>44193.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44200.0</c:v>
+                  <c:v>44224.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44231.0</c:v>
+                  <c:v>44255.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44259.0</c:v>
+                  <c:v>44283.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44290.0</c:v>
+                  <c:v>44314.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44320.0</c:v>
+                  <c:v>44344.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44351.0</c:v>
+                  <c:v>44375.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44381.0</c:v>
+                  <c:v>44405.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44412.0</c:v>
+                  <c:v>44436.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44443.0</c:v>
+                  <c:v>44467.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44473.0</c:v>
+                  <c:v>44497.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44504.0</c:v>
+                  <c:v>44528.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44534.0</c:v>
+                  <c:v>44558.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44565.0</c:v>
+                  <c:v>44589.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5360,11 +5368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2136515640"/>
-        <c:axId val="-2122443544"/>
+        <c:axId val="-2093761336"/>
+        <c:axId val="-2093758344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2136515640"/>
+        <c:axId val="-2093761336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5374,14 +5382,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122443544"/>
+        <c:crossAx val="-2093758344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2122443544"/>
+        <c:axId val="-2093758344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5397,12 +5405,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2136515640"/>
+        <c:crossAx val="-2093761336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130233640"/>
+        <c:axId val="-2093754760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,12 +5420,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122440248"/>
+        <c:crossAx val="-2093751896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-2122440248"/>
+        <c:axId val="-2093751896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,7 +5435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130233640"/>
+        <c:crossAx val="-2093754760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5436,7 +5444,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6152,8 +6159,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128065096"/>
-        <c:axId val="-2122516360"/>
+        <c:axId val="-2093729016"/>
+        <c:axId val="-2093726040"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6492,11 +6499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125880136"/>
-        <c:axId val="-2122507480"/>
+        <c:axId val="-2093719496"/>
+        <c:axId val="-2093722456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2128065096"/>
+        <c:axId val="-2093729016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6506,14 +6513,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122516360"/>
+        <c:crossAx val="-2093726040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2122516360"/>
+        <c:axId val="-2093726040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6529,12 +6536,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2128065096"/>
+        <c:crossAx val="-2093729016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2122507480"/>
+        <c:axId val="-2093722456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6544,12 +6551,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125880136"/>
+        <c:crossAx val="-2093719496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-2125880136"/>
+        <c:axId val="-2093719496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6559,7 +6566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122507480"/>
+        <c:crossAx val="-2093722456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7310,7 +7317,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7411,7 +7418,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7504,7 +7511,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7560,7 +7567,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7664,7 +7671,7 @@
         <xdr:cNvPr id="27" name="Straight Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00008C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7720,7 +7727,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000B7000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7790,7 +7797,7 @@
         <xdr:cNvPr id="36" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000B9000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7860,7 +7867,7 @@
         <xdr:cNvPr id="37" name="TextBox 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000BB000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7941,7 +7948,7 @@
         <xdr:cNvPr id="47" name="TextBox 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000C6000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8020,7 +8027,7 @@
         <xdr:cNvPr id="49" name="TextBox 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000C8000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8189,7 +8196,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9407,7 +9414,7 @@
   <dimension ref="B2:Y38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
@@ -9478,7 +9485,7 @@
       </c>
       <c r="D8" s="33">
         <f ca="1">TODAY()</f>
-        <v>43500</v>
+        <v>43524</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>32</v>
@@ -9851,147 +9858,147 @@
       </c>
       <c r="C8" s="4">
         <f ca="1">'Get Started'!D8</f>
-        <v>43500</v>
+        <v>43524</v>
       </c>
       <c r="D8" s="4">
         <f ca="1">EDATE(C8,1)</f>
-        <v>43528</v>
+        <v>43552</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ref="E8:AL8" ca="1" si="1">EDATE(D8,1)</f>
-        <v>43559</v>
+        <v>43583</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43589</v>
+        <v>43613</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43620</v>
+        <v>43644</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43650</v>
+        <v>43674</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43681</v>
+        <v>43705</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43712</v>
+        <v>43736</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43742</v>
+        <v>43766</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43773</v>
+        <v>43797</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43803</v>
+        <v>43827</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43834</v>
+        <v>43858</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43865</v>
+        <v>43889</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43894</v>
+        <v>43918</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43925</v>
+        <v>43949</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43955</v>
+        <v>43979</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43986</v>
+        <v>44010</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44016</v>
+        <v>44040</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44047</v>
+        <v>44071</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44078</v>
+        <v>44102</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44108</v>
+        <v>44132</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44139</v>
+        <v>44163</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44169</v>
+        <v>44193</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44200</v>
+        <v>44224</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44231</v>
+        <v>44255</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44259</v>
+        <v>44283</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44290</v>
+        <v>44314</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44320</v>
+        <v>44344</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44351</v>
+        <v>44375</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44381</v>
+        <v>44405</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44412</v>
+        <v>44436</v>
       </c>
       <c r="AH8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44443</v>
+        <v>44467</v>
       </c>
       <c r="AI8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44473</v>
+        <v>44497</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44504</v>
+        <v>44528</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44534</v>
+        <v>44558</v>
       </c>
       <c r="AL8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>44565</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="9" spans="2:38">
@@ -13355,11 +13362,11 @@
   <dimension ref="A2:CA155"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J7" sqref="J7:J50"/>
       <selection pane="topRight" activeCell="J7" sqref="J7:J50"/>
       <selection pane="bottomLeft" activeCell="J7" sqref="J7:J50"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -40537,11 +40544,11 @@
         <v>10000000</v>
       </c>
       <c r="J134" s="50">
-        <f ca="1">I136+J125</f>
+        <f ca="1">I134+J125</f>
         <v>10000000</v>
       </c>
       <c r="K134" s="50">
-        <f t="shared" ref="K134:BD134" ca="1" si="350">J134</f>
+        <f t="shared" ref="K134:BD134" ca="1" si="350">J134+K125</f>
         <v>10000000</v>
       </c>
       <c r="L134" s="50">
@@ -40817,11 +40824,11 @@
         <v>0</v>
       </c>
       <c r="J135" s="50">
-        <f t="shared" ref="J135:BD135" ca="1" si="353">J129</f>
+        <f ca="1">J129+I135</f>
         <v>0</v>
       </c>
       <c r="K135" s="50">
-        <f t="shared" ca="1" si="353"/>
+        <f t="shared" ref="K135:BD135" ca="1" si="353">K129+J135</f>
         <v>0</v>
       </c>
       <c r="L135" s="50">
@@ -41663,7 +41670,8 @@
         <f>"assumes all convertible instruments are owned by "&amp;B135</f>
         <v>assumes all convertible instruments are owned by Investors</v>
       </c>
-      <c r="I140" s="127">
+      <c r="I140" s="137">
+        <f>1-I139</f>
         <v>0</v>
       </c>
       <c r="J140" s="24">
@@ -43718,11 +43726,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B17"/>
+  <dimension ref="B2:B20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -43739,56 +43747,67 @@
     </row>
     <row r="3" spans="2:2" s="2" customFormat="1"/>
     <row r="4" spans="2:2" s="2" customFormat="1">
-      <c r="B4" s="131" t="s">
-        <v>320</v>
+      <c r="B4" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="2:2" s="2" customFormat="1">
-      <c r="B5" s="132" t="s">
-        <v>323</v>
+      <c r="B5" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="6" spans="2:2" s="2" customFormat="1" ht="34">
-      <c r="B6" s="85" t="s">
-        <v>296</v>
-      </c>
-    </row>
+    <row r="6" spans="2:2" s="2" customFormat="1"/>
     <row r="7" spans="2:2" s="2" customFormat="1">
-      <c r="B7" s="85" t="s">
-        <v>327</v>
+      <c r="B7" s="131" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="2:2" s="2" customFormat="1">
-      <c r="B8" s="85"/>
+      <c r="B8" s="132" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="9" spans="2:2" s="2" customFormat="1">
-      <c r="B9" s="131" t="s">
+    <row r="9" spans="2:2" s="2" customFormat="1" ht="34">
+      <c r="B9" s="85" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" s="2" customFormat="1">
+      <c r="B10" s="85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" s="2" customFormat="1">
+      <c r="B11" s="85"/>
+    </row>
+    <row r="12" spans="2:2" s="2" customFormat="1">
+      <c r="B12" s="131" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="2:2" s="2" customFormat="1" ht="85">
-      <c r="B10" s="132" t="s">
+    <row r="13" spans="2:2" s="2" customFormat="1" ht="85">
+      <c r="B13" s="132" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="2:2" s="2" customFormat="1"/>
-    <row r="12" spans="2:2">
-      <c r="B12" s="131" t="s">
+    <row r="14" spans="2:2" s="2" customFormat="1"/>
+    <row r="15" spans="2:2">
+      <c r="B15" s="131" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="51">
-      <c r="B13" s="72" t="s">
+    <row r="16" spans="2:2" ht="51">
+      <c r="B16" s="72" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="68">
-      <c r="B15" s="72" t="s">
+    <row r="18" spans="2:2" ht="68">
+      <c r="B18" s="72" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="7" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="7" t="s">
         <v>308</v>
       </c>
     </row>
